--- a/KWS/test_case/share1.xlsx
+++ b/KWS/test_case/share1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,9 +443,6 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -465,9 +462,6 @@
       <c r="E4">
         <v>163</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -488,9 +482,6 @@
       </c>
       <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
